--- a/modelos/OBASPA4451023/OBASPA4451023_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451023/OBASPA4451023_Sell Out_metricas.xlsx
@@ -476,79 +476,79 @@
         <v>45000</v>
       </c>
       <c r="B2" t="n">
-        <v>95.0307013201256</v>
+        <v>95.05511758249911</v>
       </c>
       <c r="C2" t="n">
-        <v>75.16055571216954</v>
+        <v>73.27056599781618</v>
       </c>
       <c r="D2" t="n">
-        <v>115.8255817011007</v>
+        <v>115.156551729791</v>
       </c>
       <c r="E2" t="n">
         <v>90</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44999</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B3" t="n">
-        <v>126.7616511962107</v>
+        <v>126.3331289718122</v>
       </c>
       <c r="C3" t="n">
-        <v>106.0632614903509</v>
+        <v>105.7998236205217</v>
       </c>
       <c r="D3" t="n">
-        <v>145.4554254395498</v>
+        <v>145.6135252092966</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45006</v>
+        <v>45003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45017</v>
+        <v>45013</v>
       </c>
       <c r="B4" t="n">
-        <v>67.34420816979194</v>
+        <v>108.4600478054525</v>
       </c>
       <c r="C4" t="n">
-        <v>47.89721392298537</v>
+        <v>85.31985616412322</v>
       </c>
       <c r="D4" t="n">
-        <v>88.41559784627432</v>
+        <v>132.2085963103352</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45013</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45024</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>63.35212383678837</v>
+        <v>64.18128363857583</v>
       </c>
       <c r="C5" t="n">
-        <v>42.37235624993936</v>
+        <v>41.60864451939289</v>
       </c>
       <c r="D5" t="n">
-        <v>85.87657623190964</v>
+        <v>87.34679784753429</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45020</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>108.6100439271301</v>
+        <v>96.15761631164852</v>
       </c>
       <c r="C6" t="n">
-        <v>84.57602755332132</v>
+        <v>72.52488190029051</v>
       </c>
       <c r="D6" t="n">
-        <v>131.0274631844165</v>
+        <v>117.8702892237457</v>
       </c>
       <c r="E6" t="n">
         <v>77</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>100.0409021411538</v>
+        <v>90.93466473995092</v>
       </c>
       <c r="C7" t="n">
-        <v>77.59063753745821</v>
+        <v>67.57320335397402</v>
       </c>
       <c r="D7" t="n">
-        <v>122.2551735641435</v>
+        <v>113.5585911060112</v>
       </c>
       <c r="E7" t="n">
         <v>59</v>
@@ -596,13 +596,13 @@
         <v>45048</v>
       </c>
       <c r="B8" t="n">
-        <v>112.4928716477942</v>
+        <v>97.72303606501347</v>
       </c>
       <c r="C8" t="n">
-        <v>87.88141468957171</v>
+        <v>74.21560419737938</v>
       </c>
       <c r="D8" t="n">
-        <v>136.9942376932669</v>
+        <v>122.2121902533818</v>
       </c>
       <c r="E8" t="n">
         <v>122</v>
@@ -616,13 +616,13 @@
         <v>45059</v>
       </c>
       <c r="B9" t="n">
-        <v>67.53194597073275</v>
+        <v>55.39490933812566</v>
       </c>
       <c r="C9" t="n">
-        <v>44.02715923500393</v>
+        <v>32.04163997917895</v>
       </c>
       <c r="D9" t="n">
-        <v>92.74957293196327</v>
+        <v>78.26084319629344</v>
       </c>
       <c r="E9" t="n">
         <v>106</v>
@@ -636,13 +636,13 @@
         <v>45063</v>
       </c>
       <c r="B10" t="n">
-        <v>89.63593840850754</v>
+        <v>84.55554269549174</v>
       </c>
       <c r="C10" t="n">
-        <v>65.45912152304386</v>
+        <v>60.6279735798602</v>
       </c>
       <c r="D10" t="n">
-        <v>115.2981447205141</v>
+        <v>108.9032104887096</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,132 +714,106 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>25.30795577231347</v>
+        <v>2302.906555578774</v>
       </c>
       <c r="C2" t="n">
-        <v>5.030701320125601</v>
+        <v>47.98860860223782</v>
       </c>
       <c r="D2" t="n">
-        <v>5.030701320125601</v>
+        <v>43.13275581304637</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0558966813347289</v>
+        <v>0.5562893079764437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0558966813347289</v>
+        <v>0.4774065156780599</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05437693619743543</v>
+        <v>0.4843747907137895</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1479.791180798624</v>
+        <v>25.55421377289162</v>
       </c>
       <c r="C3" t="n">
-        <v>38.46805402926725</v>
+        <v>5.055117582499108</v>
       </c>
       <c r="D3" t="n">
-        <v>38.46805402926725</v>
+        <v>5.055117582499108</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3629061700874269</v>
+        <v>0.05616797313887897</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3629061700874269</v>
+        <v>0.05616797313887897</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4433541480109389</v>
+        <v>0.0546336426523897</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1645.99071143956</v>
+        <v>693.4185373987031</v>
       </c>
       <c r="C4" t="n">
-        <v>40.57081107692525</v>
+        <v>26.33284142280705</v>
       </c>
       <c r="D4" t="n">
-        <v>36.99604216650179</v>
+        <v>25.54614052579972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4456921745350613</v>
+        <v>0.395032857953278</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4456921745350613</v>
+        <v>0.395032857953278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4753826064622417</v>
+        <v>0.3236274047220988</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1341.775262817427</v>
+        <v>1286.958241389817</v>
       </c>
       <c r="C5" t="n">
-        <v>36.63025065185096</v>
+        <v>35.87420021951454</v>
       </c>
       <c r="D5" t="n">
-        <v>36.32547303414193</v>
+        <v>32.00459675635136</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5530642809343513</v>
+        <v>0.7943562746220754</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5530642809343513</v>
+        <v>0.3655592263526773</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4283560189071343</v>
+        <v>0.4941729964035833</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1573.385476156931</v>
-      </c>
-      <c r="C6" t="n">
-        <v>39.66592336196059</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.96823931897465</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8047733664691272</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3485282042150071</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.458283090954727</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451023/OBASPA4451023_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451023/OBASPA4451023_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45000</v>
       </c>
       <c r="B2" t="n">
-        <v>95.05511758249911</v>
+        <v>95.05511758250064</v>
       </c>
       <c r="C2" t="n">
-        <v>73.27056599781618</v>
+        <v>74.33420822998811</v>
       </c>
       <c r="D2" t="n">
-        <v>115.156551729791</v>
+        <v>115.364224635166</v>
       </c>
       <c r="E2" t="n">
         <v>90</v>
@@ -496,13 +496,13 @@
         <v>45006</v>
       </c>
       <c r="B3" t="n">
-        <v>126.3331289718122</v>
+        <v>126.3331289718862</v>
       </c>
       <c r="C3" t="n">
-        <v>105.7998236205217</v>
+        <v>106.4306547806946</v>
       </c>
       <c r="D3" t="n">
-        <v>145.6135252092966</v>
+        <v>147.5959456776962</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
@@ -516,13 +516,13 @@
         <v>45013</v>
       </c>
       <c r="B4" t="n">
-        <v>108.4600478054525</v>
+        <v>108.4600463972913</v>
       </c>
       <c r="C4" t="n">
-        <v>85.31985616412322</v>
+        <v>84.40199690005784</v>
       </c>
       <c r="D4" t="n">
-        <v>132.2085963103352</v>
+        <v>131.3332658628976</v>
       </c>
       <c r="E4" t="n">
         <v>94</v>
@@ -536,13 +536,13 @@
         <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>64.18128363857583</v>
+        <v>64.18128219906396</v>
       </c>
       <c r="C5" t="n">
-        <v>41.60864451939289</v>
+        <v>41.41106135076234</v>
       </c>
       <c r="D5" t="n">
-        <v>87.34679784753429</v>
+        <v>86.37931611759241</v>
       </c>
       <c r="E5" t="n">
         <v>47</v>
@@ -556,13 +556,13 @@
         <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>96.15761631164852</v>
+        <v>96.15761631163988</v>
       </c>
       <c r="C6" t="n">
-        <v>72.52488190029051</v>
+        <v>72.13755586141015</v>
       </c>
       <c r="D6" t="n">
-        <v>117.8702892237457</v>
+        <v>117.8214951115625</v>
       </c>
       <c r="E6" t="n">
         <v>77</v>
@@ -576,13 +576,13 @@
         <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>90.93466473995092</v>
+        <v>90.93466473992167</v>
       </c>
       <c r="C7" t="n">
-        <v>67.57320335397402</v>
+        <v>68.58571191132863</v>
       </c>
       <c r="D7" t="n">
-        <v>113.5585911060112</v>
+        <v>111.6566111892255</v>
       </c>
       <c r="E7" t="n">
         <v>59</v>
@@ -596,13 +596,13 @@
         <v>45048</v>
       </c>
       <c r="B8" t="n">
-        <v>97.72303606501347</v>
+        <v>97.72303606509442</v>
       </c>
       <c r="C8" t="n">
-        <v>74.21560419737938</v>
+        <v>76.85054427885619</v>
       </c>
       <c r="D8" t="n">
-        <v>122.2121902533818</v>
+        <v>119.6767051050702</v>
       </c>
       <c r="E8" t="n">
         <v>122</v>
@@ -619,10 +619,10 @@
         <v>55.39490933812566</v>
       </c>
       <c r="C9" t="n">
-        <v>32.04163997917895</v>
+        <v>30.42910972044895</v>
       </c>
       <c r="D9" t="n">
-        <v>78.26084319629344</v>
+        <v>78.32715106822813</v>
       </c>
       <c r="E9" t="n">
         <v>106</v>
@@ -639,10 +639,10 @@
         <v>84.55554269549174</v>
       </c>
       <c r="C10" t="n">
-        <v>60.6279735798602</v>
+        <v>60.36675409847841</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9032104887096</v>
+        <v>106.9319915873535</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -717,22 +717,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2302.906555578774</v>
+        <v>2302.906542007229</v>
       </c>
       <c r="C2" t="n">
-        <v>47.98860860223782</v>
+        <v>47.98860846083401</v>
       </c>
       <c r="D2" t="n">
-        <v>43.13275581304637</v>
+        <v>43.13275534368397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5562893079764437</v>
+        <v>0.556289302983362</v>
       </c>
       <c r="F2" t="n">
         <v>0.4774065156780599</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4843747907137895</v>
+        <v>0.4843747864082962</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333334</v>
@@ -743,22 +743,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>25.55421377289162</v>
+        <v>25.55421377290714</v>
       </c>
       <c r="C3" t="n">
-        <v>5.055117582499108</v>
+        <v>5.055117582500642</v>
       </c>
       <c r="D3" t="n">
-        <v>5.055117582499108</v>
+        <v>5.055117582500642</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05616797313887897</v>
+        <v>0.05616797313889603</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05616797313887897</v>
+        <v>0.05616797313889603</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0546336426523897</v>
+        <v>0.05463364265240583</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -769,22 +769,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>693.4185373987031</v>
+        <v>693.4185373976036</v>
       </c>
       <c r="C4" t="n">
-        <v>26.33284142280705</v>
+        <v>26.33284142278618</v>
       </c>
       <c r="D4" t="n">
-        <v>25.54614052579972</v>
+        <v>25.54614052578078</v>
       </c>
       <c r="E4" t="n">
-        <v>0.395032857953278</v>
+        <v>0.395032857952974</v>
       </c>
       <c r="F4" t="n">
-        <v>0.395032857953278</v>
+        <v>0.395032857952974</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3236274047220988</v>
+        <v>0.3236274047219009</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -795,25 +795,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1286.958241389817</v>
+        <v>1286.958224900066</v>
       </c>
       <c r="C5" t="n">
-        <v>35.87420021951454</v>
+        <v>35.87419998968711</v>
       </c>
       <c r="D5" t="n">
-        <v>32.00459675635136</v>
+        <v>32.00459627648709</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7943562746220754</v>
+        <v>0.7943562644125501</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3655592263526773</v>
+        <v>0.3655591957247651</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4941729964035833</v>
+        <v>0.4941729891055688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4451023/OBASPA4451023_Sell Out_metricas.xlsx
+++ b/modelos/OBASPA4451023/OBASPA4451023_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>95.05511758250064</v>
       </c>
       <c r="C2" t="n">
-        <v>74.33420822998811</v>
+        <v>74.6281685605107</v>
       </c>
       <c r="D2" t="n">
-        <v>115.364224635166</v>
+        <v>114.6906223668171</v>
       </c>
       <c r="E2" t="n">
         <v>90</v>
@@ -499,10 +499,10 @@
         <v>126.3331289718862</v>
       </c>
       <c r="C3" t="n">
-        <v>106.4306547806946</v>
+        <v>105.5654547822832</v>
       </c>
       <c r="D3" t="n">
-        <v>147.5959456776962</v>
+        <v>145.2743265217649</v>
       </c>
       <c r="E3" t="n">
         <v>62</v>
@@ -519,10 +519,10 @@
         <v>108.4600463972913</v>
       </c>
       <c r="C4" t="n">
-        <v>84.40199690005784</v>
+        <v>86.42683347400303</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3332658628976</v>
+        <v>132.2951703391003</v>
       </c>
       <c r="E4" t="n">
         <v>94</v>
@@ -539,10 +539,10 @@
         <v>64.18128219906396</v>
       </c>
       <c r="C5" t="n">
-        <v>41.41106135076234</v>
+        <v>40.00020083258087</v>
       </c>
       <c r="D5" t="n">
-        <v>86.37931611759241</v>
+        <v>86.83971700887706</v>
       </c>
       <c r="E5" t="n">
         <v>47</v>
@@ -559,10 +559,10 @@
         <v>96.15761631163988</v>
       </c>
       <c r="C6" t="n">
-        <v>72.13755586141015</v>
+        <v>75.31377389656073</v>
       </c>
       <c r="D6" t="n">
-        <v>117.8214951115625</v>
+        <v>118.7635716960936</v>
       </c>
       <c r="E6" t="n">
         <v>77</v>
@@ -579,10 +579,10 @@
         <v>90.93466473992167</v>
       </c>
       <c r="C7" t="n">
-        <v>68.58571191132863</v>
+        <v>67.43423087854289</v>
       </c>
       <c r="D7" t="n">
-        <v>111.6566111892255</v>
+        <v>114.9168884489924</v>
       </c>
       <c r="E7" t="n">
         <v>59</v>
@@ -599,10 +599,10 @@
         <v>97.72303606509442</v>
       </c>
       <c r="C8" t="n">
-        <v>76.85054427885619</v>
+        <v>74.88866633614772</v>
       </c>
       <c r="D8" t="n">
-        <v>119.6767051050702</v>
+        <v>122.4716502681307</v>
       </c>
       <c r="E8" t="n">
         <v>122</v>
@@ -619,10 +619,10 @@
         <v>55.39490933812566</v>
       </c>
       <c r="C9" t="n">
-        <v>30.42910972044895</v>
+        <v>33.05276828912707</v>
       </c>
       <c r="D9" t="n">
-        <v>78.32715106822813</v>
+        <v>79.61166477844147</v>
       </c>
       <c r="E9" t="n">
         <v>106</v>
@@ -639,10 +639,10 @@
         <v>84.55554269549174</v>
       </c>
       <c r="C10" t="n">
-        <v>60.36675409847841</v>
+        <v>60.22290699833245</v>
       </c>
       <c r="D10" t="n">
-        <v>106.9319915873535</v>
+        <v>106.7605256988473</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -813,7 +813,7 @@
         <v>0.4941729891055688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>
